--- a/RP_ModuleIKSet002.xlsx
+++ b/RP_ModuleIKSet002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltz\Documents\CppProjects\GitManagements\RobotProject221209\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{04ADFCF9-6754-46C8-B853-A0CC757CCE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2739C1CD-F745-404D-A2C2-699A88E5135F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3645" yWindow="3780" windowWidth="18645" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="96">
   <si>
     <t>コメント</t>
   </si>
@@ -293,73 +293,117 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>RL01_x</t>
-  </si>
-  <si>
-    <t>RL02_EE</t>
-  </si>
-  <si>
-    <t>RL02_TA</t>
-  </si>
-  <si>
     <t>右足のIK設定：脚を開く動作</t>
-  </si>
-  <si>
-    <t>RL01_z</t>
-  </si>
-  <si>
-    <t>RL02_x</t>
-  </si>
-  <si>
-    <t>RL05_EE</t>
-  </si>
-  <si>
-    <t>RL05_TA01</t>
-  </si>
-  <si>
-    <t>RL03_x</t>
-  </si>
-  <si>
-    <t>RL03_y</t>
-  </si>
-  <si>
-    <t>RL03_z</t>
-  </si>
-  <si>
-    <t>LL01_x</t>
-  </si>
-  <si>
-    <t>LL02_EE</t>
-  </si>
-  <si>
-    <t>LL02_TA</t>
-  </si>
-  <si>
-    <t>LL01_z</t>
-  </si>
-  <si>
-    <t>LL05_TA01</t>
-  </si>
-  <si>
-    <t>LL02_x</t>
-  </si>
-  <si>
-    <t>LL05_EE</t>
-  </si>
-  <si>
-    <t>LL03_x</t>
-  </si>
-  <si>
-    <t>LL03_y</t>
-  </si>
-  <si>
-    <t>LL03_z</t>
   </si>
   <si>
     <t>左足のIK設定：脚を開く動作</t>
     <rPh sb="0" eb="1">
       <t>ヒダリ</t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>HD01_y</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>HD01_z_EE01</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>HD_TA01</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>HD01_x</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>RL01_x</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>RL02_EE</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>RL02_TA</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>RL01_z</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>RL05_TA01</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>RL02_x</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>RL05_EE</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>RL03_x</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>RL03_y</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>RL03_z</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3: dirz_as_dirz</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LL01_x</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LL02_EE</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LL02_TA</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LL01_z</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LL05_TA01</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LL02_x</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LL05_EE</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LL03_x</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LL03_y</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LL03_z</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>HD_TA02</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1425,10 +1469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2335,80 +2379,162 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+      <c r="A33" s="6">
+        <v>500</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="6">
+        <v>502</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="6">
+        <v>950</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0.2</v>
+      </c>
       <c r="I33" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
+      <c r="A34" s="7">
+        <v>501</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="7">
+        <v>502</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="7">
+        <v>950</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0.2</v>
+      </c>
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
+      <c r="A35" s="6">
+        <v>500</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="6">
+        <v>502</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="6">
+        <v>951</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="I35" s="7"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
+      <c r="A36" s="7">
+        <v>501</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="7">
+        <v>502</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="7">
+        <v>951</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0.2</v>
+      </c>
       <c r="I36" s="7"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
+      <c r="A37" s="6">
+        <v>600</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="6">
+        <v>710</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="6">
+        <v>971</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="7">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C38" s="7">
         <v>710</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E38" s="7">
         <v>971</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>5</v>
@@ -2416,28 +2542,26 @@
       <c r="H38" s="7">
         <v>0.4</v>
       </c>
-      <c r="I38" s="10" t="s">
-        <v>71</v>
-      </c>
+      <c r="I38" s="7"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="6">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C39" s="6">
         <v>710</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E39" s="6">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>5</v>
@@ -2449,22 +2573,22 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="7">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C40" s="7">
         <v>710</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E40" s="7">
         <v>970</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>5</v>
@@ -2476,49 +2600,49 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="6">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C41" s="6">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E41" s="6">
         <v>970</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>5</v>
       </c>
       <c r="H41" s="6">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I41" s="6"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="7">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C42" s="7">
         <v>706</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E42" s="7">
         <v>970</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>5</v>
@@ -2530,22 +2654,22 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="6">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C43" s="6">
         <v>706</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E43" s="6">
         <v>970</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>5</v>
@@ -2557,22 +2681,22 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="7">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C44" s="7">
         <v>706</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E44" s="7">
         <v>970</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>5</v>
@@ -2584,49 +2708,49 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="6">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C45" s="6">
         <v>706</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E45" s="6">
         <v>970</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="H45" s="6">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="7">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C46" s="7">
         <v>706</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E46" s="7">
         <v>970</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>3</v>
@@ -2638,25 +2762,25 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="6">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C47" s="6">
         <v>706</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E47" s="6">
         <v>970</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H47" s="6">
         <v>0.8</v>
@@ -2665,49 +2789,51 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="7">
-        <v>605</v>
+        <v>700</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C48" s="7">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E48" s="7">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H48" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="I48" s="7"/>
+        <v>0.4</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" s="6">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C49" s="6">
         <v>710</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E49" s="6">
         <v>971</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>5</v>
@@ -2715,28 +2841,26 @@
       <c r="H49" s="6">
         <v>0.4</v>
       </c>
-      <c r="I49" s="10" t="s">
-        <v>89</v>
-      </c>
+      <c r="I49" s="6"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="7">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C50" s="7">
         <v>710</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E50" s="7">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>5</v>
@@ -2748,22 +2872,22 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="6">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C51" s="6">
         <v>710</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E51" s="6">
         <v>970</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>5</v>
@@ -2775,49 +2899,49 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="7">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C52" s="7">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E52" s="7">
         <v>970</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>5</v>
       </c>
       <c r="H52" s="7">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I52" s="7"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="6">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C53" s="6">
         <v>706</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E53" s="6">
         <v>970</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>5</v>
@@ -2829,22 +2953,22 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="7">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C54" s="7">
         <v>706</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E54" s="7">
         <v>970</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>5</v>
@@ -2856,22 +2980,22 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="6">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C55" s="6">
         <v>706</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E55" s="6">
         <v>970</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>5</v>
@@ -2883,49 +3007,49 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="7">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C56" s="7">
         <v>706</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E56" s="7">
         <v>970</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H56" s="7">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="I56" s="7"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="6">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C57" s="6">
         <v>706</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E57" s="6">
         <v>970</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>3</v>
@@ -2937,25 +3061,25 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="7">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C58" s="7">
         <v>706</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E58" s="7">
         <v>970</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H58" s="7">
         <v>0.8</v>
@@ -2963,30 +3087,14 @@
       <c r="I58" s="7"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A59" s="6">
-        <v>705</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C59" s="6">
-        <v>706</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E59" s="6">
-        <v>970</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H59" s="6">
-        <v>0.8</v>
-      </c>
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.4">
@@ -3243,31 +3351,20 @@
       <c r="I82" s="7"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G33:G84" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G33:G83" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"0: pos_to_pos, 1: dirz_look_pos, 2: dirx_look_pos, 3: dirz_as_dirz, 4: dirx_as_dirx, 5: dirz_as_dirx, 6: dirx_as_dirz"</formula1>
     </dataValidation>
   </dataValidations>

--- a/RP_ModuleIKSet002.xlsx
+++ b/RP_ModuleIKSet002.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltz\Documents\CppProjects\GitManagements\RobotProject221209\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2739C1CD-F745-404D-A2C2-699A88E5135F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696D44A1-F9DC-4AC5-8AEF-F2E9A020F054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3645" yWindow="3780" windowWidth="18645" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19845" yWindow="4680" windowWidth="18645" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RP_ModuleIKSet002" sheetId="1" r:id="rId1"/>
@@ -1471,8 +1471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2401,7 +2401,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="6">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>66</v>
@@ -2430,7 +2430,7 @@
         <v>5</v>
       </c>
       <c r="H34" s="7">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I34" s="7"/>
     </row>
@@ -2511,7 +2511,7 @@
         <v>5</v>
       </c>
       <c r="H37" s="6">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>68</v>
@@ -2540,7 +2540,7 @@
         <v>5</v>
       </c>
       <c r="H38" s="7">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I38" s="7"/>
     </row>
@@ -2567,7 +2567,7 @@
         <v>5</v>
       </c>
       <c r="H39" s="6">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I39" s="6"/>
     </row>
@@ -2594,7 +2594,7 @@
         <v>5</v>
       </c>
       <c r="H40" s="7">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I40" s="7"/>
     </row>
@@ -2621,7 +2621,7 @@
         <v>5</v>
       </c>
       <c r="H41" s="6">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I41" s="6"/>
     </row>
@@ -2648,7 +2648,7 @@
         <v>5</v>
       </c>
       <c r="H42" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I42" s="7"/>
     </row>
@@ -2675,7 +2675,7 @@
         <v>5</v>
       </c>
       <c r="H43" s="6">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I43" s="6"/>
     </row>
@@ -2702,7 +2702,7 @@
         <v>5</v>
       </c>
       <c r="H44" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I44" s="7"/>
     </row>
@@ -2729,7 +2729,7 @@
         <v>84</v>
       </c>
       <c r="H45" s="6">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="I45" s="6"/>
     </row>
@@ -2756,7 +2756,7 @@
         <v>3</v>
       </c>
       <c r="H46" s="7">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="I46" s="7"/>
     </row>
@@ -2783,7 +2783,7 @@
         <v>1</v>
       </c>
       <c r="H47" s="6">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="I47" s="6"/>
     </row>
@@ -2810,7 +2810,7 @@
         <v>5</v>
       </c>
       <c r="H48" s="7">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I48" s="10" t="s">
         <v>69</v>
@@ -2839,7 +2839,7 @@
         <v>5</v>
       </c>
       <c r="H49" s="6">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I49" s="6"/>
     </row>
@@ -2866,7 +2866,7 @@
         <v>5</v>
       </c>
       <c r="H50" s="7">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I50" s="7"/>
     </row>
@@ -2893,7 +2893,7 @@
         <v>5</v>
       </c>
       <c r="H51" s="6">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I51" s="6"/>
     </row>
@@ -2920,7 +2920,7 @@
         <v>5</v>
       </c>
       <c r="H52" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I52" s="7"/>
     </row>
@@ -2947,7 +2947,7 @@
         <v>5</v>
       </c>
       <c r="H53" s="6">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I53" s="6"/>
     </row>
@@ -2974,7 +2974,7 @@
         <v>5</v>
       </c>
       <c r="H54" s="7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I54" s="7"/>
     </row>
@@ -3001,7 +3001,7 @@
         <v>5</v>
       </c>
       <c r="H55" s="6">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I55" s="6"/>
     </row>
@@ -3028,7 +3028,7 @@
         <v>3</v>
       </c>
       <c r="H56" s="7">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="I56" s="7"/>
     </row>
@@ -3055,7 +3055,7 @@
         <v>3</v>
       </c>
       <c r="H57" s="6">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="I57" s="6"/>
     </row>
@@ -3082,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="H58" s="7">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="I58" s="7"/>
     </row>
